--- a/OBE/data/bak/0621.xlsx
+++ b/OBE/data/bak/0621.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBELAB_JH_DESKTOP\Documents\GitHub\testfornothing\OBE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBELAB_JH_DESKTOP\Documents\GitHub\testfornothing\OBE\data\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C9DAB-8502-4AA5-AB39-F19C9079EF2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1BEBE-E7F9-477A-A0E0-D2DDFD5DDC26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,14 @@
     <sheet name="CBTTB" sheetId="10" r:id="rId10"/>
     <sheet name="REPEAT" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34891,7 +34898,7 @@
   <dimension ref="A1:CA16"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16:AF29"/>
+      <selection activeCell="BC5" sqref="BC5:BC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38505,8 +38512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BV18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BP10" sqref="BP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41923,8 +41930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BX34"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -46628,7 +46635,7 @@
   <dimension ref="A1:BV34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -53410,13 +53417,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BB77"/>
   <sheetViews>
-    <sheetView topLeftCell="AD49" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="AD25" workbookViewId="0">
+      <selection activeCell="W70" sqref="W70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="32" max="32" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
@@ -66790,7 +66798,7 @@
   <dimension ref="A1:CC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -81865,8 +81873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BW103"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -93763,8 +93771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BY54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BI1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G5:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
